--- a/ControlBook Mensal/clientes/BNB.xlsx
+++ b/ControlBook Mensal/clientes/BNB.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,2243 +574,2244 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000447</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>#PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNO</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO:  #PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNOAMBIENTE:   AMBIENTE DE SUPORTE À REDE DE AGÊNCIASCOORDENAÇÃO:   KEILA HELENA QUEIROZ MEDEIROS F154326LOCAL:  SALA 02.HORÁRIO: 8H30 ÀS 10H.TRANSMISSÃO:  MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO:   JOÃO PAULO FELIX – C002607.PÚBLICO ALVO:   GERENTE DE AGÊNCIA E GERENTE DE RELACIONAMENTO</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000449</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).AMBIENTE DE PRIVACIDADE DE DADOS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTESPAULO SÉRGIO BARRETO DE ARAÚJO F139114SALA 02 </t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000471</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 15:14</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO - AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLA</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO: AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLAAMBIENTE:    AMBIENTE DE MICROFINANÇA E MINIPRODUTORES RURAIS.COORDENAÇÃO:  ATALIA FLOR FREITAS A016300LOCAL:  SALA 02.HORÁRIO:    15HTRANSMISSÃO:   MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO).SUPORTE TÉCNICO:   JOAO PAULO FELIX DE OLIVEIRA   C002   607.PÚBLICO ALVO:  REDE DE AGÊNCIAS.</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000493</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:56</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA.AMBIENTE: GERENTE DE RELACIONAMENTO JUAZEIRO DO NORTE .COORDENAÇÃO: NILCIVÂNIA BARBOSA OLIVEIRA LUCAS F147478.LOCAL: SALA 02.HORÁRIO: 13H ÀS 15H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: ENTREVISTA.</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000496</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 06:10</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>05/02/2023 01:43</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <v>44962.67986111111</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>44963.39930555555</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44965.46597222222</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB IP: 10.201.201.6 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=378618853</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>LINK NORMALIZOU APÓS REINICIO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="3" t="inlineStr">
         <is>
           <t>14:36:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>202302000535</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 14:35</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PB</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO :ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PBAMBIENTE: SUPER-PBCOORDENAÇÃO: FÁBIO VINICIUS.LOCAL: SALA 02 / SUPER-PBHORÁRIO: 8H ÀS 11H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>202302000541</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:52</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>DIVULGAÇÃO DE CAMPANHA 2023.</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : DIVULGAÇÃO DE CAMPANHA 2023.AMBIENTE:  AMBIENTE DE TRANSAÇÕES E DE SERVIÇOS BANCÁRIOS.COORDENAÇÃO: SANDRA SORAYA DE F. SANTOS F049441.LOCAL: SALA 02.HORÁRIO:  8H30 ÀS 12H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="3" t="n">
         <v>202302000542</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO - CÂMBIO - CARTA DE CRÉDITO.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO: CÂMBIO - CARTA DE CRÉDITO.AMBIENTE:  AMBIENTE DE NEGÓCIOS EMPRESARIAIS E GOVERNO .COORDENAÇÃO:   ANA CRISTINA FERREIRA AZEVEDO F080047.LOCAL:   SALA 04.HORÁRIO: 16H ÀS 17H30.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO) / POLYCOM.SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS BNB.</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="3" t="n">
         <v>202302000546</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:11</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 15:27</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>08/02/2023 19:04</t>
         </is>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="4" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE - INDISPONIVEL </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=381198717</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>FALHA: ROMPIMENTO DE FIBRA OCASIONADO POR VANDALISMO.LOCALIZAÇÃO: AVENIDA BORGES DE MELO X AVENIDA LUCIANO CARNEIRO (-3.756272, -38.534245).AÇÃO CORRETIVA: UTILIZADOS 200M DE RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>00:16:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
         <is>
           <t>08:37:02</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>08:53:02</t>
         </is>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="3" t="n">
         <v>84292023</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>05:18:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000580</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>10/02/2023 07:56</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023AMBIENTE: AMBIENTE DE PRODUTOS DE EMPRESTIMOS E CARTÕESTRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.PÚBLICO ALVO: DIRETORIA, SUPERINTENDÊNCIA, GESTORES E EXECUTIVO VISA ( BORGES, MATHEUS - MABORGES@VISA.COM )</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>01:06:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>00:01:54</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>01:07:54</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="3" t="n">
         <v>202302000593</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 14:46</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO - PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO: PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.AMBIENTE: AMBIENTE DE DIST. SUP. DE FUNDOS DE INVESTIMENTO.COORDENAÇÃO: FRANCISCO CÂNDIDO NETO F126020.LOCAL: SALA 02.HORÁRIO: 16H ÀS 17H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS, CLIENTES E POTENCIAIS CLIENTES.</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="3" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="3" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Y12" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="3" t="n">
         <v>202302000595</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 15:24</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="M13" s="3" t="inlineStr">
         <is>
           <t>ABA: VIDEOCONFERÊNCIATÍTULO: METODOLOGIA DE AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS 2023DESCRIÇÃO: CONHEÇA OS CRITÉRIOS DA AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS EM 2023.</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="T13" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="3" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="3" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W13" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="3" t="n">
         <v>202302000617</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" s="3" t="inlineStr">
         <is>
           <t>PROVIDENCIADO POSTAGEM NO PORTAL POLYCOM NO LINK HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB/HOME ABA #PAPOCOMAREDE. GENTILEZA ENCAMINHAR PARA ÁREA RESPONSÁVEL CONFORME ORIENTAÇÃO. (ALINE FARIAS LIMA F157996).LINK: HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB?NODEID=117876&amp;CHROME=0&amp;TOOLS=0&amp;TABS=0&amp;CC=0&amp;AUTOPLAY=0#PAPOCOMAREDE - ATUAÇÃO CONTROLES INTERNOS E COMPLIANCE 2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T14" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="3" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="3" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="3" t="n">
         <v>202302000620</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 11:08</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.AMBIENTE: AMBIENTE DE PRIVACIDADE DE DADOS PESSOAIS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTES.COORDENAÇÃO: RITA VANIA ARAGÃO C021242.LOCAL: SALA 02.HORÁRIO: 10 H30 ÀS 11H30.TRANSMISSÃO: LOCAL.SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO LOCAL SEM TRANSMISSÃO</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="3" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="3" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Y15" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="3" t="n">
         <v>202302000647</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 09:32</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURA</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" s="3" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURALOCAL: ESPAÇO INOVA / SALA 2 / SUPER - CEHORÁRIO: 19H ÀS 20HTRANSMISSÃO: YOUTUBE / TEAMS / POLYCOMPÚBLICO ALVO: EXTERNOSUPORTE TÉCNICO: FRANCISCO JOHN LENNON ALEXANDRE SILVA C013696 /  JOAO PAULO FELIX DE OLIVEIRA C002607  / GILVANES SOUZA - C034213 / COORDENAÇÃO: GABINETE DA PRESIDÊNCIA</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N16" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P16" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="3" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="3" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="3" t="n">
         <v>202302000662</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 08:19</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 14:54</t>
         </is>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="4" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.AMBIENTE: AMBIENTE DE GESTÃO DE PESSOASCOORDENAÇÃO: RENATA ALVES CAVALCANTE TELES F155209LOCAL: SALA 02.HORÁRIO: 9 H ÀS 10H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: FUNCIONÁRIO BNB</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T17" s="3" t="inlineStr">
         <is>
           <t>06:34:00</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr">
         <is>
           <t>00:01:19</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>06:35:19</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
+      <c r="W17" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="3" t="n">
         <v>202302000676</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:54</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>ABA: GESTÃO DE PESSOAS – GRUPO VIDA SAUDÁVELTÍTULO: VIDA SAUDÁVEL - DIABETES: ENTENDENDO PARA PREVENIR E TRATARDESCRIÇÃO: PALESTRA COM A ENFERMEIRA VALÉRIA ALMEIDA, ESPECIALISTA EM DIABETES PELO PROGRAMA DE RESIDÊNCIA MULTIPROFISSIONAL EM DIABETES (UFC).</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T18" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
+      <c r="W18" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="3" t="n">
         <v>202302000677</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="3" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>ABA: PLATAFORMA ALÔTÍTULO: PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSESDESCRIÇÃO: CONFIRA PALESTRA COM ANA HELENA MENDES, MÉDICA INFECTOLOGISTA.</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P19" s="3" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
+      <c r="Q19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="3" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T19" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U19" s="3" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V19" s="3" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
+      <c r="W19" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y19" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/BNB.xlsx
+++ b/ControlBook Mensal/clientes/BNB.xlsx
@@ -63,15 +63,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,2366 +455,2366 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000447</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>#PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNO</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO:  #PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNOAMBIENTE:   AMBIENTE DE SUPORTE À REDE DE AGÊNCIASCOORDENAÇÃO:   KEILA HELENA QUEIROZ MEDEIROS F154326LOCAL:  SALA 02.HORÁRIO: 8H30 ÀS 10H.TRANSMISSÃO:  MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO:   JOÃO PAULO FELIX – C002607.PÚBLICO ALVO:   GERENTE DE AGÊNCIA E GERENTE DE RELACIONAMENTO</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000449</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).AMBIENTE DE PRIVACIDADE DE DADOS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTESPAULO SÉRGIO BARRETO DE ARAÚJO F139114SALA 02 </t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000471</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 15:14</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO - AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLA</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO: AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLAAMBIENTE:    AMBIENTE DE MICROFINANÇA E MINIPRODUTORES RURAIS.COORDENAÇÃO:  ATALIA FLOR FREITAS A016300LOCAL:  SALA 02.HORÁRIO:    15HTRANSMISSÃO:   MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO).SUPORTE TÉCNICO:   JOAO PAULO FELIX DE OLIVEIRA   C002   607.PÚBLICO ALVO:  REDE DE AGÊNCIAS.</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000493</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:56</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA.AMBIENTE: GERENTE DE RELACIONAMENTO JUAZEIRO DO NORTE .COORDENAÇÃO: NILCIVÂNIA BARBOSA OLIVEIRA LUCAS F147478.LOCAL: SALA 02.HORÁRIO: 13H ÀS 15H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: ENTREVISTA.</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000496</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 06:10</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>05/02/2023 01:43</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>44962.67986111111</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>44963.39930555555</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44965.46597222222</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB IP: 10.201.201.6 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=378618853</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>LINK NORMALIZOU APÓS REINICIO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="3" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>14:36:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>202302000535</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 14:35</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PB</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO :ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PBAMBIENTE: SUPER-PBCOORDENAÇÃO: FÁBIO VINICIUS.LOCAL: SALA 02 / SUPER-PBHORÁRIO: 8H ÀS 11H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>202302000541</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:52</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>DIVULGAÇÃO DE CAMPANHA 2023.</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : DIVULGAÇÃO DE CAMPANHA 2023.AMBIENTE:  AMBIENTE DE TRANSAÇÕES E DE SERVIÇOS BANCÁRIOS.COORDENAÇÃO: SANDRA SORAYA DE F. SANTOS F049441.LOCAL: SALA 02.HORÁRIO:  8H30 ÀS 12H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>202302000542</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I9" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO - CÂMBIO - CARTA DE CRÉDITO.</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO: CÂMBIO - CARTA DE CRÉDITO.AMBIENTE:  AMBIENTE DE NEGÓCIOS EMPRESARIAIS E GOVERNO .COORDENAÇÃO:   ANA CRISTINA FERREIRA AZEVEDO F080047.LOCAL:   SALA 04.HORÁRIO: 16H ÀS 17H30.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO) / POLYCOM.SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS BNB.</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="4" t="n">
         <v>202302000546</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:11</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 15:27</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>08/02/2023 19:04</t>
         </is>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="5" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="L10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE - INDISPONIVEL </t>
         </is>
       </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=381198717</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N10" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr">
         <is>
           <t>FALHA: ROMPIMENTO DE FIBRA OCASIONADO POR VANDALISMO.LOCALIZAÇÃO: AVENIDA BORGES DE MELO X AVENIDA LUCIANO CARNEIRO (-3.756272, -38.534245).AÇÃO CORRETIVA: UTILIZADOS 200M DE RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="T10" s="4" t="inlineStr">
         <is>
           <t>00:16:00</t>
         </is>
       </c>
-      <c r="U10" s="3" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>08:37:02</t>
         </is>
       </c>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>08:53:02</t>
         </is>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>84292023</v>
       </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>05:18:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>202302000580</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 07:56</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023AMBIENTE: AMBIENTE DE PRODUTOS DE EMPRESTIMOS E CARTÕESTRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.PÚBLICO ALVO: DIRETORIA, SUPERINTENDÊNCIA, GESTORES E EXECUTIVO VISA ( BORGES, MATHEUS - MABORGES@VISA.COM )</t>
         </is>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>01:06:00</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>00:01:54</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>01:07:54</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" s="3" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>202302000593</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 14:46</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I12" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="L12" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO - PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.</t>
         </is>
       </c>
-      <c r="M12" s="3" t="inlineStr">
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO: PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.AMBIENTE: AMBIENTE DE DIST. SUP. DE FUNDOS DE INVESTIMENTO.COORDENAÇÃO: FRANCISCO CÂNDIDO NETO F126020.LOCAL: SALA 02.HORÁRIO: 16H ÀS 17H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS, CLIENTES E POTENCIAIS CLIENTES.</t>
         </is>
       </c>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="N12" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O12" s="3" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P12" s="3" t="inlineStr">
+      <c r="P12" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
+      <c r="Q12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="3" t="inlineStr">
+      <c r="T12" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="3" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="V12" s="3" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="W12" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="4" t="n">
         <v>202302000595</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 15:24</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I13" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="L13" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M13" s="3" t="inlineStr">
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>ABA: VIDEOCONFERÊNCIATÍTULO: METODOLOGIA DE AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS 2023DESCRIÇÃO: CONHEÇA OS CRITÉRIOS DA AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS EM 2023.</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
+      <c r="N13" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O13" s="3" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P13" s="3" t="inlineStr">
+      <c r="P13" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
+      <c r="Q13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="3" t="inlineStr">
+      <c r="T13" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="3" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="V13" s="3" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="W13" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="3" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" s="3" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>202302000617</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L14" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>PROVIDENCIADO POSTAGEM NO PORTAL POLYCOM NO LINK HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB/HOME ABA #PAPOCOMAREDE. GENTILEZA ENCAMINHAR PARA ÁREA RESPONSÁVEL CONFORME ORIENTAÇÃO. (ALINE FARIAS LIMA F157996).LINK: HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB?NODEID=117876&amp;CHROME=0&amp;TOOLS=0&amp;TABS=0&amp;CC=0&amp;AUTOPLAY=0#PAPOCOMAREDE - ATUAÇÃO CONTROLES INTERNOS E COMPLIANCE 2023</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N14" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="P14" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="Q14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="3" t="inlineStr">
+      <c r="T14" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="3" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="V14" s="3" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" s="3" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="4" t="n">
         <v>202302000620</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 11:08</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I15" s="4" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="L15" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.</t>
         </is>
       </c>
-      <c r="M15" s="3" t="inlineStr">
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.AMBIENTE: AMBIENTE DE PRIVACIDADE DE DADOS PESSOAIS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTES.COORDENAÇÃO: RITA VANIA ARAGÃO C021242.LOCAL: SALA 02.HORÁRIO: 10 H30 ÀS 11H30.TRANSMISSÃO: LOCAL.SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N15" s="3" t="inlineStr">
+      <c r="N15" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P15" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO LOCAL SEM TRANSMISSÃO</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="3" t="inlineStr">
+      <c r="T15" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U15" s="3" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="V15" s="3" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="W15" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="3" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>202302000647</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 09:32</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I16" s="4" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr">
+      <c r="L16" s="4" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURA</t>
         </is>
       </c>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURALOCAL: ESPAÇO INOVA / SALA 2 / SUPER - CEHORÁRIO: 19H ÀS 20HTRANSMISSÃO: YOUTUBE / TEAMS / POLYCOMPÚBLICO ALVO: EXTERNOSUPORTE TÉCNICO: FRANCISCO JOHN LENNON ALEXANDRE SILVA C013696 /  JOAO PAULO FELIX DE OLIVEIRA C002607  / GILVANES SOUZA - C034213 / COORDENAÇÃO: GABINETE DA PRESIDÊNCIA</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N16" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="P16" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="Q16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="4" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="3" t="inlineStr">
+      <c r="T16" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="3" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y16" s="3" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>202302000662</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 08:19</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 14:54</t>
         </is>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="5" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr">
+      <c r="L17" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.</t>
         </is>
       </c>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="M17" s="4" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.AMBIENTE: AMBIENTE DE GESTÃO DE PESSOASCOORDENAÇÃO: RENATA ALVES CAVALCANTE TELES F155209LOCAL: SALA 02.HORÁRIO: 9 H ÀS 10H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: FUNCIONÁRIO BNB</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="P17" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="Q17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="4" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="3" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
         <is>
           <t>06:34:00</t>
         </is>
       </c>
-      <c r="U17" s="3" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>00:01:19</t>
         </is>
       </c>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>06:35:19</t>
         </is>
       </c>
-      <c r="W17" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="3" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y17" s="3" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>202302000676</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:54</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="I18" s="3" t="inlineStr">
+      <c r="I18" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="J18" s="3" t="inlineStr">
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L18" s="3" t="inlineStr">
+      <c r="L18" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M18" s="3" t="inlineStr">
+      <c r="M18" s="4" t="inlineStr">
         <is>
           <t>ABA: GESTÃO DE PESSOAS – GRUPO VIDA SAUDÁVELTÍTULO: VIDA SAUDÁVEL - DIABETES: ENTENDENDO PARA PREVENIR E TRATARDESCRIÇÃO: PALESTRA COM A ENFERMEIRA VALÉRIA ALMEIDA, ESPECIALISTA EM DIABETES PELO PROGRAMA DE RESIDÊNCIA MULTIPROFISSIONAL EM DIABETES (UFC).</t>
         </is>
       </c>
-      <c r="N18" s="3" t="inlineStr">
+      <c r="N18" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O18" s="3" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P18" s="3" t="inlineStr">
+      <c r="P18" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R18" s="3" t="inlineStr">
+      <c r="Q18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S18" s="3" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="3" t="inlineStr">
+      <c r="T18" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="3" t="inlineStr">
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="V18" s="3" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="W18" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="3" t="inlineStr">
+      <c r="W18" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" s="3" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>202302000677</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="I19" s="3" t="inlineStr">
+      <c r="I19" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K19" s="3" t="inlineStr">
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L19" s="3" t="inlineStr">
+      <c r="L19" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M19" s="3" t="inlineStr">
+      <c r="M19" s="4" t="inlineStr">
         <is>
           <t>ABA: PLATAFORMA ALÔTÍTULO: PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSESDESCRIÇÃO: CONFIRA PALESTRA COM ANA HELENA MENDES, MÉDICA INFECTOLOGISTA.</t>
         </is>
       </c>
-      <c r="N19" s="3" t="inlineStr">
+      <c r="N19" s="4" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O19" s="3" t="inlineStr">
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P19" s="3" t="inlineStr">
+      <c r="P19" s="4" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" s="3" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="4" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S19" s="3" t="inlineStr">
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="3" t="inlineStr">
+      <c r="T19" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="3" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V19" s="3" t="inlineStr">
+      <c r="V19" s="4" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="W19" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="inlineStr">
+      <c r="W19" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" s="3" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/BNB.xlsx
+++ b/ControlBook Mensal/clientes/BNB.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -460,2361 +469,2361 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000447</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 08:59</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>#PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNO</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO:  #PAPOCOMAREDE - TCA 2023 – CONTROLE INTERNOAMBIENTE:   AMBIENTE DE SUPORTE À REDE DE AGÊNCIASCOORDENAÇÃO:   KEILA HELENA QUEIROZ MEDEIROS F154326LOCAL:  SALA 02.HORÁRIO: 8H30 ÀS 10H.TRANSMISSÃO:  MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO:   JOÃO PAULO FELIX – C002607.PÚBLICO ALVO:   GERENTE DE AGÊNCIA E GERENTE DE RELACIONAMENTO</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>00:08:06</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000449</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 09:07</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 09:32</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">REUNIÃO DA CÉLULA DE PRIVACIDADE DE DADOS – ANÁLISE DE NORMATIVO (COOKIES).AMBIENTE DE PRIVACIDADE DE DADOS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTESPAULO SÉRGIO BARRETO DE ARAÚJO F139114SALA 02 </t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>00:25:13</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000471</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 15:14</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 15:46</t>
         </is>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO - AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLA</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO: AGROINSIGHT AGROAMIGO | PROGRAMA DE AÇÃO E CUSTEIO AGRÍCOLAAMBIENTE:    AMBIENTE DE MICROFINANÇA E MINIPRODUTORES RURAIS.COORDENAÇÃO:  ATALIA FLOR FREITAS A016300LOCAL:  SALA 02.HORÁRIO:    15HTRANSMISSÃO:   MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO).SUPORTE TÉCNICO:   JOAO PAULO FELIX DE OLIVEIRA   C002   607.PÚBLICO ALVO:  REDE DE AGÊNCIAS.</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>00:31:47</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000493</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:56</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:57</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : ENTREVISTA - PROCESSO DE CONCORRÊNCIA INTERNA.AMBIENTE: GERENTE DE RELACIONAMENTO JUAZEIRO DO NORTE .COORDENAÇÃO: NILCIVÂNIA BARBOSA OLIVEIRA LUCAS F147478.LOCAL: SALA 02.HORÁRIO: 13H ÀS 15H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: ENTREVISTA.</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>00:01:10</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000496</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 06:10</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>05/02/2023 01:43</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>44962.67986111111</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>44963.39930555555</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44965.46597222222</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE / COMPULINE - RT-CLIENTE_BNB IP: 10.201.201.6 HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=378618853</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>FALHA ELÉTRICA CLIENTE</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>LINK NORMALIZOU APÓS REINICIO DO EQUIPAMENTO</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>09:38:19</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>14:36:00</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000535</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 14:35</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="I7" s="4" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 14:37</t>
         </is>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PB</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO :ENCONTRO COM OS AGENTES DE DESENVOLVIMENTO SUPER-PBAMBIENTE: SUPER-PBCOORDENAÇÃO: FÁBIO VINICIUS.LOCAL: SALA 02 / SUPER-PBHORÁRIO: 8H ÀS 11H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>00:01:21</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000541</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:52</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="I8" s="4" t="inlineStr">
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:55</t>
         </is>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>DIVULGAÇÃO DE CAMPANHA 2023.</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : DIVULGAÇÃO DE CAMPANHA 2023.AMBIENTE:  AMBIENTE DE TRANSAÇÕES E DE SERVIÇOS BANCÁRIOS.COORDENAÇÃO: SANDRA SORAYA DE F. SANTOS F049441.LOCAL: SALA 02.HORÁRIO:  8H30 ÀS 12H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>00:03:04</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="W8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000542</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I9" s="4" t="inlineStr">
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO - CÂMBIO - CARTA DE CRÉDITO.</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO: CÂMBIO - CARTA DE CRÉDITO.AMBIENTE:  AMBIENTE DE NEGÓCIOS EMPRESARIAIS E GOVERNO .COORDENAÇÃO:   ANA CRISTINA FERREIRA AZEVEDO F080047.LOCAL:   SALA 04.HORÁRIO: 16H ÀS 17H30.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO / REUNIÃO) / POLYCOM.SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS BNB.</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>00:01:34</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="W9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000546</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    LINK INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:11</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 10:09</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 15:27</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>08/02/2023 19:04</t>
         </is>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="7" t="n">
         <v>44967.81736111111</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>DADOS</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">RTD-BNB - FORTALEZA - FLA 53229314A- 10MBPS - BASE - INDISPONIVEL </t>
         </is>
       </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t>HTTPS://BASETELCO.CLOUDPROVTEL.COM/TR_EVENTS.PHP?TRIGGERID=55784&amp;EVENTID=381198717</t>
         </is>
       </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N1 DADOS</t>
         </is>
       </c>
-      <c r="Q10" s="4" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
         <is>
           <t>ROMPIMENTO DE FIBRA</t>
         </is>
       </c>
-      <c r="R10" s="4" t="inlineStr">
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t>FALHA: ROMPIMENTO DE FIBRA OCASIONADO POR VANDALISMO.LOCALIZAÇÃO: AVENIDA BORGES DE MELO X AVENIDA LUCIANO CARNEIRO (-3.756272, -38.534245).AÇÃO CORRETIVA: UTILIZADOS 200M DE RESERVA TÉCNICA E UMA CAIXA DE EMENDA.</t>
         </is>
       </c>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="4" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>00:16:00</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>08:37:02</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>08:53:02</t>
         </is>
       </c>
-      <c r="W10" s="4" t="n">
+      <c r="W10" s="6" t="n">
         <v>84292023</v>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>05:18:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="8" t="n">
         <v>202302000580</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>10/02/2023 07:56</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="6" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K11" s="6" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L11" s="6" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023</t>
         </is>
       </c>
-      <c r="M11" s="6" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>REUNIÃO : LIVE – CAMPANHA JOGA JUNTO 2022 – PREMIAÇÕES E LANÇAMENTO CAMPANHA JOGA JUNTO 2023AMBIENTE: AMBIENTE DE PRODUTOS DE EMPRESTIMOS E CARTÕESTRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.PÚBLICO ALVO: DIRETORIA, SUPERINTENDÊNCIA, GESTORES E EXECUTIVO VISA ( BORGES, MATHEUS - MABORGES@VISA.COM )</t>
         </is>
       </c>
-      <c r="N11" s="6" t="inlineStr">
+      <c r="N11" s="9" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O11" s="6" t="inlineStr">
+      <c r="O11" s="9" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P11" s="6" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q11" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="6" t="inlineStr">
+      <c r="Q11" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="9" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S11" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="T11" s="9" t="inlineStr">
         <is>
           <t>01:06:00</t>
         </is>
       </c>
-      <c r="U11" s="6" t="inlineStr">
+      <c r="U11" s="9" t="inlineStr">
         <is>
           <t>00:01:54</t>
         </is>
       </c>
-      <c r="V11" s="6" t="inlineStr">
+      <c r="V11" s="9" t="inlineStr">
         <is>
           <t>01:07:54</t>
         </is>
       </c>
-      <c r="W11" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="W11" s="9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>202302000593</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 14:46</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="I12" s="4" t="inlineStr">
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 14:47</t>
         </is>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="K12" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L12" s="4" t="inlineStr">
+      <c r="L12" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO - PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.</t>
         </is>
       </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="M12" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO: PERSPECTIVA MENSAL PÚBLICO EXTERNO E INTERNO.AMBIENTE: AMBIENTE DE DIST. SUP. DE FUNDOS DE INVESTIMENTO.COORDENAÇÃO: FRANCISCO CÂNDIDO NETO F126020.LOCAL: SALA 02.HORÁRIO: 16H ÀS 17H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOAO PAULO FELIX DE OLIVEIRA C002607.PÚBLICO ALVO: FUNCIONÁRIOS, CLIENTES E POTENCIAIS CLIENTES.</t>
         </is>
       </c>
-      <c r="N12" s="4" t="inlineStr">
+      <c r="N12" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P12" s="4" t="inlineStr">
+      <c r="P12" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R12" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T12" s="4" t="inlineStr">
+      <c r="T12" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="6" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="6" t="inlineStr">
         <is>
           <t>00:01:11</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="W12" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X12" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="Y12" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>202302000595</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 15:24</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 15:26</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K13" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L13" s="4" t="inlineStr">
+      <c r="L13" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>ABA: VIDEOCONFERÊNCIATÍTULO: METODOLOGIA DE AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS 2023DESCRIÇÃO: CONHEÇA OS CRITÉRIOS DA AVALIAÇÃO DAS CARTEIRAS MÚLTIPLAS EM 2023.</t>
         </is>
       </c>
-      <c r="N13" s="4" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P13" s="4" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R13" s="4" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R13" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="S13" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T13" s="4" t="inlineStr">
+      <c r="T13" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="6" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="6" t="inlineStr">
         <is>
           <t>00:01:43</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="W13" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X13" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>202302000617</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 08:57</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="inlineStr">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="I14" s="4" t="inlineStr">
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 08:59</t>
         </is>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="K14" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L14" s="4" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="6" t="inlineStr">
         <is>
           <t>PROVIDENCIADO POSTAGEM NO PORTAL POLYCOM NO LINK HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB/HOME ABA #PAPOCOMAREDE. GENTILEZA ENCAMINHAR PARA ÁREA RESPONSÁVEL CONFORME ORIENTAÇÃO. (ALINE FARIAS LIMA F157996).LINK: HTTP://AUDIOVISUAL.CAPGV.INTRA.BNB?NODEID=117876&amp;CHROME=0&amp;TOOLS=0&amp;TABS=0&amp;CC=0&amp;AUTOPLAY=0#PAPOCOMAREDE - ATUAÇÃO CONTROLES INTERNOS E COMPLIANCE 2023</t>
         </is>
       </c>
-      <c r="N14" s="4" t="inlineStr">
+      <c r="N14" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P14" s="4" t="inlineStr">
+      <c r="P14" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R14" s="4" t="inlineStr">
+      <c r="Q14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R14" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="S14" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T14" s="4" t="inlineStr">
+      <c r="T14" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="6" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="6" t="inlineStr">
         <is>
           <t>00:02:11</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="W14" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X14" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y14" s="4" t="inlineStr">
+      <c r="Y14" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>202302000620</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 11:08</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="I15" s="4" t="inlineStr">
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>13/02/2023 11:10</t>
         </is>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="K15" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L15" s="4" t="inlineStr">
+      <c r="L15" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.</t>
         </is>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : PROGRAMA MEXA-SE - ANÁLISE DO QUESTIONÁRIO.AMBIENTE: AMBIENTE DE PRIVACIDADE DE DADOS PESSOAIS E DE DIRETRIZES DE RELACIONAMENTO COM CLIENTES.COORDENAÇÃO: RITA VANIA ARAGÃO C021242.LOCAL: SALA 02.HORÁRIO: 10 H30 ÀS 11H30.TRANSMISSÃO: LOCAL.SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607 / GILVANES DA SILVA SOUZA C034213.</t>
         </is>
       </c>
-      <c r="N15" s="4" t="inlineStr">
+      <c r="N15" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P15" s="4" t="inlineStr">
+      <c r="P15" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="Q15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R15" s="6" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO LOCAL SEM TRANSMISSÃO</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="6" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="V15" s="6" t="inlineStr">
         <is>
           <t>00:02:13</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="W15" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X15" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>202302000647</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 09:32</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="I16" s="4" t="inlineStr">
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>15/02/2023 09:37</t>
         </is>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="K16" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L16" s="4" t="inlineStr">
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURA</t>
         </is>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="6" t="inlineStr">
         <is>
           <t>LIVE EDITAIS DE PATROCÍNIO - CULTURALOCAL: ESPAÇO INOVA / SALA 2 / SUPER - CEHORÁRIO: 19H ÀS 20HTRANSMISSÃO: YOUTUBE / TEAMS / POLYCOMPÚBLICO ALVO: EXTERNOSUPORTE TÉCNICO: FRANCISCO JOHN LENNON ALEXANDRE SILVA C013696 /  JOAO PAULO FELIX DE OLIVEIRA C002607  / GILVANES SOUZA - C034213 / COORDENAÇÃO: GABINETE DA PRESIDÊNCIA</t>
         </is>
       </c>
-      <c r="N16" s="4" t="inlineStr">
+      <c r="N16" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P16" s="4" t="inlineStr">
+      <c r="P16" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="Q16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R16" s="6" t="inlineStr">
         <is>
           <t>ACOMPANHAMENTO REALIZADO.</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="6" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="V16" s="6" t="inlineStr">
         <is>
           <t>00:04:58</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="W16" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X16" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>202302000662</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    ACOMPANHAMENTO DE VIDEOCONFERÊNCIA</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 08:19</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 14:54</t>
         </is>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="7" t="n">
         <v>44975.63680555556</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="K17" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L17" s="4" t="inlineStr">
+      <c r="L17" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="M17" s="6" t="inlineStr">
         <is>
           <t>REUNIÃO : PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSES.AMBIENTE: AMBIENTE DE GESTÃO DE PESSOASCOORDENAÇÃO: RENATA ALVES CAVALCANTE TELES F155209LOCAL: SALA 02.HORÁRIO: 9 H ÀS 10H.TRANSMISSÃO: MICROSOFT TEAMS (MODO AO VIVO).SUPORTE TÉCNICO: JOÃO PAULO FELIX – C002607.PÚBLICO ALVO: FUNCIONÁRIO BNB</t>
         </is>
       </c>
-      <c r="N17" s="4" t="inlineStr">
+      <c r="N17" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P17" s="4" t="inlineStr">
+      <c r="P17" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R17" s="4" t="inlineStr">
+      <c r="Q17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R17" s="6" t="inlineStr">
         <is>
           <t>APENAS ACOMPANHAMENTO DE REUNIÃO VIA PLATAFORMA TEAMS / POLYCOM / STREAM</t>
         </is>
       </c>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="S17" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="6" t="inlineStr">
         <is>
           <t>06:34:00</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="6" t="inlineStr">
         <is>
           <t>00:01:19</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="6" t="inlineStr">
         <is>
           <t>06:35:19</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="W17" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X17" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>202302000676</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:54</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H18" s="4" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="I18" s="4" t="inlineStr">
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="K18" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L18" s="4" t="inlineStr">
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="6" t="inlineStr">
         <is>
           <t>ABA: GESTÃO DE PESSOAS – GRUPO VIDA SAUDÁVELTÍTULO: VIDA SAUDÁVEL - DIABETES: ENTENDENDO PARA PREVENIR E TRATARDESCRIÇÃO: PALESTRA COM A ENFERMEIRA VALÉRIA ALMEIDA, ESPECIALISTA EM DIABETES PELO PROGRAMA DE RESIDÊNCIA MULTIPROFISSIONAL EM DIABETES (UFC).</t>
         </is>
       </c>
-      <c r="N18" s="4" t="inlineStr">
+      <c r="N18" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P18" s="4" t="inlineStr">
+      <c r="P18" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="Q18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R18" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="6" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="6" t="inlineStr">
         <is>
           <t>00:02:15</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="W18" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X18" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <v>202302000677</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:57</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr">
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr">
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 16:59</t>
         </is>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="6" t="inlineStr">
         <is>
           <t>RESIDENTES BNB</t>
         </is>
       </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="K19" s="6" t="inlineStr">
         <is>
           <t>VÍDEO</t>
         </is>
       </c>
-      <c r="L19" s="4" t="inlineStr">
+      <c r="L19" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="6" t="inlineStr">
         <is>
           <t>ABA: PLATAFORMA ALÔTÍTULO: PLATAFORMA ALÔ - PREVENÇÃO DE ARBOVIROSESDESCRIÇÃO: CONFIRA PALESTRA COM ANA HELENA MENDES, MÉDICA INFECTOLOGISTA.</t>
         </is>
       </c>
-      <c r="N19" s="4" t="inlineStr">
+      <c r="N19" s="6" t="inlineStr">
         <is>
           <t>BNB</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="6" t="inlineStr">
         <is>
           <t>FORTALEZA</t>
         </is>
       </c>
-      <c r="P19" s="4" t="inlineStr">
+      <c r="P19" s="6" t="inlineStr">
         <is>
           <t>BNB RESIDENTE</t>
         </is>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="Q19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R19" s="6" t="inlineStr">
         <is>
           <t>APENAS POSTAGEM DE VÍDEOS NO PORTAL POLYCOM</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="6" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="6" t="inlineStr">
         <is>
           <t>00:01:18</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="W19" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X19" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
